--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -46,42 +46,42 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -91,19 +91,19 @@
     <t>size</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>better</t>
   </si>
   <si>
     <t>work</t>
@@ -118,6 +118,9 @@
     <t>like</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -151,15 +154,15 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
@@ -167,9 +170,6 @@
   </si>
   <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>easy</t>
@@ -539,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>55</v>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.875</v>
@@ -658,28 +658,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D4">
-        <v>37</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="K4">
         <v>0.8615384615384616</v>
@@ -708,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.734375</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.8279569892473119</v>
@@ -758,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6901408450704225</v>
+        <v>0.6875</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.703125</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6486486486486487</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6213592233009708</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C9">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.5480631276901005</v>
+        <v>0.533715925394548</v>
       </c>
       <c r="L9">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M9">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5636363636363636</v>
+        <v>0.587378640776699</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.504149377593361</v>
+        <v>0.5145228215767634</v>
       </c>
       <c r="L10">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M10">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5630252100840336</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.4459016393442623</v>
+        <v>0.4450819672131148</v>
       </c>
       <c r="L11">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M11">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5072463768115942</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C12">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D12">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>0.3554216867469879</v>
@@ -1108,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3886255924170616</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C13">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.3492063492063492</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>123</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3858267716535433</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.3486238532110092</v>
+        <v>0.325</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>213</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3789473684210526</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.2833333333333333</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3493975903614458</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>0.2150537634408602</v>
@@ -1329,16 +1329,16 @@
         <v>85</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>0.1967871485943775</v>
+      </c>
+      <c r="L17">
         <v>49</v>
       </c>
-      <c r="K17">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="L17">
-        <v>42</v>
-      </c>
       <c r="M17">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1358,13 +1358,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2722772277227723</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.147239263803681</v>
+        <v>0.1498685363716039</v>
       </c>
       <c r="L18">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M18">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1408,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.211340206185567</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.08356545961002786</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.19</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1476,31 +1476,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.08021390374331551</v>
+        <v>0.07532467532467532</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>344</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1508,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.180379746835443</v>
+        <v>0.1750741839762611</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,31 +1526,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>259</v>
+        <v>556</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.07727272727272727</v>
+        <v>0.03866666666666667</v>
       </c>
       <c r="L21">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1421</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1558,49 +1558,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.177536231884058</v>
+        <v>0.1642651296829971</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>227</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22">
-        <v>0.04793608521970705</v>
-      </c>
-      <c r="L22">
-        <v>36</v>
-      </c>
-      <c r="M22">
-        <v>37</v>
-      </c>
-      <c r="N22">
-        <v>0.97</v>
-      </c>
-      <c r="O22">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>715</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,13 +1584,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1661721068249258</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C23">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1626,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>562</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1634,13 +1610,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1580459770114943</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1652,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>293</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1660,13 +1636,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1550632911392405</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1678,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1686,13 +1662,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1255506607929515</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="C26">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1704,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1712,25 +1688,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1086142322097378</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1738,25 +1714,51 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.066006600660066</v>
+        <v>0.05271828665568369</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E28">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F28">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>566</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.04309252217997465</v>
+      </c>
+      <c r="C29">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>0.13</v>
+      </c>
+      <c r="F29">
+        <v>0.87</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>755</v>
       </c>
     </row>
   </sheetData>
